--- a/Income/MOH_inc.xlsx
+++ b/Income/MOH_inc.xlsx
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.4369</v>
+        <v>0.1795</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.1867</v>
@@ -2288,16 +2288,16 @@
         <v>0.0941</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0118</v>
+        <v>0.0287</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0354</v>
+        <v>0.053</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.0041</v>
+        <v>0.014</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0034</v>
+        <v>0.022</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0139</v>
@@ -3873,7 +3873,7 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0583</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.0604</v>
@@ -4006,16 +4006,16 @@
         <v>0.098</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.0167</v>
+        <v>0.0336</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.04</v>
+        <v>0.0577</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.0182</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.0068</v>
+        <v>0.0254</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.016</v>
